--- a/G3_20_Sharon_PROYECTO/Etapa 2 - BDD + DATOS/G3_20_SHARON_DB_PROYECTO_FINAL.xlsx
+++ b/G3_20_Sharon_PROYECTO/Etapa 2 - BDD + DATOS/G3_20_SHARON_DB_PROYECTO_FINAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>TBL_CLIENTE</t>
   </si>
@@ -158,10 +158,43 @@
     <t xml:space="preserve">BARRIO ARRIBA </t>
   </si>
   <si>
-    <t>HAMBURGESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARACUYA </t>
+    <t xml:space="preserve">MICHELLE </t>
+  </si>
+  <si>
+    <t>1 PLATO DE PIZZA</t>
+  </si>
+  <si>
+    <t>3 PLATOS DE SOPAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 JUGO DE MARACUYA </t>
+  </si>
+  <si>
+    <t>6 PLATOS DE PASTEL DE CHOCOLATE</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 PLATOS DE SOPAS </t>
+  </si>
+  <si>
+    <t>3 COCA COLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 PLATOS DE PASTEL DE VAINILLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARON </t>
+  </si>
+  <si>
+    <t>3 JUGOS DE MARACUYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 PLATOS DE PIZZA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 PLATO DE HAMBURGUESA </t>
   </si>
 </sst>
 </file>
@@ -629,18 +662,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" customWidth="1"/>
@@ -819,10 +852,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="5">
         <v>1</v>
@@ -831,27 +864,29 @@
         <v>2</v>
       </c>
       <c r="I12" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="5">
         <v>1</v>
       </c>
       <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
-        <v>2</v>
-      </c>
       <c r="N12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
-        <v>4</v>
-      </c>
-      <c r="P12" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -861,39 +896,41 @@
         <v>2</v>
       </c>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
         <v>0</v>
       </c>
       <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <v>3</v>
       </c>
-      <c r="H13" s="5">
-        <v>4</v>
-      </c>
-      <c r="I13" s="5">
-        <v>7</v>
-      </c>
       <c r="J13" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="5">
         <v>5</v>
       </c>
-      <c r="L13" s="5">
-        <v>2</v>
-      </c>
-      <c r="M13" s="5">
-        <v>4</v>
-      </c>
-      <c r="N13" s="5">
-        <v>9</v>
-      </c>
       <c r="O13" s="5">
-        <v>2</v>
-      </c>
-      <c r="P13" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -903,7 +940,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -912,30 +949,32 @@
         <v>2</v>
       </c>
       <c r="H14" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
         <v>6</v>
       </c>
-      <c r="J14" s="5">
-        <v>3</v>
-      </c>
-      <c r="K14" s="5">
-        <v>2</v>
-      </c>
-      <c r="L14" s="5">
-        <v>3</v>
-      </c>
-      <c r="M14" s="5">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <v>7</v>
-      </c>
-      <c r="O14" s="5">
-        <v>5</v>
-      </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1027,21 +1066,23 @@
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I27" s="5">
-        <v>600</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
@@ -1051,21 +1092,21 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I28" s="5">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>400</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -1075,21 +1116,23 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I29" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="5">
-        <v>500</v>
-      </c>
-      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
